--- a/Data Files/Input Validation/10. creationdate/Auto_CreationDate_C17.xlsx
+++ b/Data Files/Input Validation/10. creationdate/Auto_CreationDate_C17.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59AD74-48B8-4A63-8181-0D6F5761DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,252 +25,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
-    <t xml:space="preserve">contractNo</t>
+    <t>contractNo</t>
   </si>
   <si>
-    <t xml:space="preserve">creationDate</t>
+    <t>creationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">selectType</t>
+    <t>selectType</t>
   </si>
   <si>
-    <t xml:space="preserve">typeCode</t>
+    <t>typeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">effectiveDate</t>
+    <t>effectiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">expireDate</t>
+    <t>expireDate</t>
   </si>
   <si>
-    <t xml:space="preserve">receiveDate</t>
+    <t>receiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">sendFormType</t>
+    <t>sendFormType</t>
   </si>
   <si>
-    <t xml:space="preserve">fillingNo</t>
+    <t>fillingNo</t>
   </si>
   <si>
-    <t xml:space="preserve">overdueFlag</t>
+    <t>overdueFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">dupNumber</t>
+    <t>dupNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">instAmount</t>
+    <t>instAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerId</t>
+    <t>taxPayerId</t>
   </si>
   <si>
-    <t xml:space="preserve">branchNo</t>
+    <t>branchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerBranchType</t>
+    <t>taxPayerBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerRelationship</t>
+    <t>taxPayerRelationship</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyId</t>
+    <t>contractPartyId</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyFirstName</t>
+    <t>contractPartyFirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyLastName</t>
+    <t>contractPartyLastName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchNo</t>
+    <t>contractPartyBranchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchType</t>
+    <t>contractPartyBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingName</t>
+    <t>buildingName</t>
   </si>
   <si>
-    <t xml:space="preserve">roomNo</t>
+    <t>roomNo</t>
   </si>
   <si>
-    <t xml:space="preserve">floorNo</t>
+    <t>floorNo</t>
   </si>
   <si>
-    <t xml:space="preserve">villageName</t>
+    <t>villageName</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingNumber</t>
+    <t>buildingNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">moo</t>
+    <t>moo</t>
   </si>
   <si>
-    <t xml:space="preserve">soiName</t>
+    <t>soiName</t>
   </si>
   <si>
-    <t xml:space="preserve">junctionName</t>
+    <t>junctionName</t>
   </si>
   <si>
-    <t xml:space="preserve">streetName</t>
+    <t>streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">subdistrict</t>
+    <t>subdistrict</t>
   </si>
   <si>
-    <t xml:space="preserve">district</t>
+    <t>district</t>
   </si>
   <si>
-    <t xml:space="preserve">province</t>
+    <t>province</t>
   </si>
   <si>
-    <t xml:space="preserve">postCode</t>
+    <t>postCode</t>
   </si>
   <si>
-    <t xml:space="preserve">countryId</t>
+    <t>countryId</t>
   </si>
   <si>
-    <t xml:space="preserve">totalParty</t>
+    <t>totalParty</t>
   </si>
   <si>
-    <t xml:space="preserve">arrayDetail</t>
+    <t>arrayDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">relateParty</t>
+    <t>relateParty</t>
   </si>
   <si>
-    <t xml:space="preserve">relateContract</t>
+    <t>relateContract</t>
   </si>
   <si>
-    <t xml:space="preserve">dupDutyAmount</t>
+    <t>dupDutyAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">issueNumber</t>
+    <t>issueNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">userId</t>
+    <t>userId</t>
   </si>
   <si>
-    <t xml:space="preserve">entityId</t>
+    <t>entityId</t>
   </si>
   <si>
-    <t xml:space="preserve">senderRole</t>
+    <t>senderRole</t>
   </si>
   <si>
-    <t xml:space="preserve">formType</t>
+    <t>formType</t>
   </si>
   <si>
-    <t xml:space="preserve">Yhjk-asd-132</t>
+    <t>Yhjk-asd-132</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-9-1</t>
+    <t>2023-9-1</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-22</t>
+    <t>2023-08-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-31</t>
+    <t>2023-12-31</t>
   </si>
   <si>
-    <t xml:space="preserve">new_entry</t>
+    <t>new_entry</t>
   </si>
   <si>
-    <t xml:space="preserve">51000</t>
+    <t>51000</t>
   </si>
   <si>
-    <t xml:space="preserve">0105556078229</t>
+    <t>0105556078229</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t>O</t>
   </si>
   <si>
-    <t xml:space="preserve">1721000011382</t>
+    <t>1721000011382</t>
   </si>
   <si>
-    <t xml:space="preserve">สมหมาย</t>
+    <t>สมหมาย</t>
   </si>
   <si>
-    <t xml:space="preserve">ดั่งใจหวัง</t>
+    <t>ดั่งใจหวัง</t>
   </si>
   <si>
-    <t xml:space="preserve">888/77</t>
+    <t>888/77</t>
   </si>
   <si>
-    <t xml:space="preserve">99</t>
+    <t>99</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">หมู่บ้านรื่นรนย์</t>
+    <t>หมู่บ้านรื่นรนย์</t>
   </si>
   <si>
-    <t xml:space="preserve">ตำบลหนองใหญ่</t>
+    <t>ตำบลหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">อำเภอหนองใหญ่</t>
+    <t>อำเภอหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">จังหวัดนนทบุรี</t>
+    <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
-    <t xml:space="preserve">10600</t>
+    <t>10600</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
+    <t>TH</t>
   </si>
   <si>
-    <t xml:space="preserve">[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+    <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t xml:space="preserve">U0105556078229000</t>
+    <t>U0105556078229000</t>
   </si>
   <si>
-    <t xml:space="preserve">AS9</t>
+    <t>AS9</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,7 +268,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -292,130 +276,389 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16380" min="46" style="1" width="2.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="2.67"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.6640625" style="1"/>
+    <col min="16383" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,7 +800,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -654,7 +897,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>53</v>
@@ -674,7 +917,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -725,10 +968,10 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="XFC3" s="4"/>
-      <c r="XFD3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="XFC3"/>
+      <c r="XFD3"/>
+    </row>
+    <row r="4" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -780,7 +1023,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -832,7 +1075,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -884,7 +1127,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -934,14 +1177,14 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -985,13 +1228,13 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1036,13 +1279,13 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1087,13 +1330,13 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1138,11 +1381,11 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1190,7 +1433,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1241,7 +1484,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1293,7 +1536,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1345,7 +1588,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1397,7 +1640,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1449,7 +1692,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1501,7 +1744,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1553,7 +1796,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1605,7 +1848,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1657,7 +1900,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1709,7 +1952,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1761,7 +2004,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1813,7 +2056,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1865,7 +2108,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1917,7 +2160,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1969,7 +2212,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2021,7 +2264,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2073,7 +2316,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2125,7 +2368,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2177,7 +2420,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2229,7 +2472,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2281,7 +2524,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2333,7 +2576,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2385,7 +2628,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2437,7 +2680,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2489,7 +2732,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2541,7 +2784,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2593,7 +2836,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2645,7 +2888,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2697,7 +2940,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2749,7 +2992,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2801,7 +3044,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2853,7 +3096,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2905,7 +3148,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2957,7 +3200,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3009,7 +3252,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3061,7 +3304,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3113,7 +3356,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3165,7 +3408,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3217,7 +3460,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3269,7 +3512,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3321,7 +3564,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3373,7 +3616,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3425,7 +3668,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3477,7 +3720,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3529,7 +3772,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3581,7 +3824,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3633,7 +3876,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3685,7 +3928,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3737,7 +3980,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3789,7 +4032,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3841,7 +4084,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3893,7 +4136,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3945,7 +4188,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3997,7 +4240,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4049,7 +4292,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4101,7 +4344,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4153,7 +4396,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4205,7 +4448,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4257,7 +4500,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4309,7 +4552,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4361,7 +4604,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4413,7 +4656,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4465,7 +4708,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4517,7 +4760,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4569,7 +4812,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4621,7 +4864,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4673,7 +4916,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4725,7 +4968,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4777,7 +5020,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4829,7 +5072,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4881,7 +5124,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4933,7 +5176,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4985,7 +5228,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5037,7 +5280,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5089,7 +5332,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5141,7 +5384,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5193,7 +5436,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5245,7 +5488,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5297,7 +5540,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5349,7 +5592,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5401,7 +5644,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5453,7 +5696,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5505,7 +5748,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5557,7 +5800,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5609,7 +5852,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5661,7 +5904,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5713,7 +5956,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5765,7 +6008,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5817,7 +6060,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5869,7 +6112,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5921,7 +6164,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5973,7 +6216,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6025,7 +6268,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6077,7 +6320,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6129,7 +6372,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6181,7 +6424,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6233,7 +6476,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6285,7 +6528,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6337,7 +6580,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6389,7 +6632,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6441,7 +6684,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6493,7 +6736,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6545,7 +6788,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6597,7 +6840,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6649,7 +6892,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6701,7 +6944,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6753,7 +6996,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6805,7 +7048,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6857,7 +7100,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6909,7 +7152,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6961,7 +7204,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7013,7 +7256,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7065,7 +7308,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7117,7 +7360,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7169,7 +7412,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7221,7 +7464,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7273,7 +7516,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7325,7 +7568,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7377,7 +7620,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7429,7 +7672,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7481,7 +7724,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7533,7 +7776,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7585,7 +7828,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7637,7 +7880,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7689,7 +7932,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7741,7 +7984,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7793,7 +8036,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7845,7 +8088,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7897,7 +8140,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7949,7 +8192,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8001,7 +8244,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8053,7 +8296,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8105,7 +8348,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8157,7 +8400,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8209,7 +8452,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8261,7 +8504,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8313,7 +8556,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8365,7 +8608,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8417,7 +8660,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8469,7 +8712,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8521,7 +8764,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8573,7 +8816,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8625,7 +8868,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8677,7 +8920,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8729,7 +8972,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8781,7 +9024,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8833,7 +9076,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8885,7 +9128,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8937,7 +9180,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8989,7 +9232,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9041,7 +9284,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9093,7 +9336,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9145,7 +9388,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9197,7 +9440,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9249,7 +9492,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9301,7 +9544,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9353,7 +9596,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9405,7 +9648,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9457,7 +9700,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9509,7 +9752,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9561,7 +9804,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9613,7 +9856,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9665,7 +9908,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9717,7 +9960,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9769,7 +10012,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9821,7 +10064,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9873,7 +10116,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9925,7 +10168,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9977,7 +10220,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10029,7 +10272,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10081,7 +10324,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10133,7 +10376,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10185,7 +10428,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10237,7 +10480,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10289,7 +10532,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10341,7 +10584,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10393,7 +10636,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10445,7 +10688,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10497,7 +10740,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10549,7 +10792,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10601,7 +10844,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10653,7 +10896,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10705,7 +10948,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10757,7 +11000,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10809,7 +11052,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10861,7 +11104,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10913,7 +11156,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10965,7 +11208,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11017,7 +11260,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11069,7 +11312,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11121,7 +11364,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11173,7 +11416,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11225,7 +11468,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11277,7 +11520,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11329,7 +11572,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11381,7 +11624,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11433,7 +11676,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11485,7 +11728,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11537,7 +11780,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11589,7 +11832,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11641,7 +11884,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11693,7 +11936,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11745,7 +11988,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11797,7 +12040,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11849,7 +12092,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11901,7 +12144,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11953,7 +12196,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12005,7 +12248,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12057,7 +12300,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12109,7 +12352,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12161,7 +12404,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12213,7 +12456,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12265,7 +12508,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12317,7 +12560,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12369,7 +12612,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12421,7 +12664,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12473,7 +12716,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12525,7 +12768,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12577,7 +12820,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12629,7 +12872,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12681,7 +12924,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12733,7 +12976,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12785,7 +13028,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12837,7 +13080,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12889,7 +13132,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12941,7 +13184,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12993,7 +13236,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13045,7 +13288,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13097,7 +13340,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13149,7 +13392,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13201,7 +13444,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13253,7 +13496,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13305,7 +13548,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13357,7 +13600,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13409,7 +13652,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13461,7 +13704,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13513,7 +13756,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13565,7 +13808,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13617,7 +13860,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13669,7 +13912,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13721,7 +13964,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13773,7 +14016,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13825,7 +14068,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13877,7 +14120,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13929,7 +14172,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13981,7 +14224,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14033,7 +14276,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14085,7 +14328,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14137,7 +14380,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14189,7 +14432,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14241,7 +14484,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14293,7 +14536,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14345,7 +14588,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14397,7 +14640,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14449,7 +14692,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14501,7 +14744,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14553,7 +14796,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14605,7 +14848,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14657,7 +14900,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14709,7 +14952,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -14761,7 +15004,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -14813,7 +15056,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -14865,7 +15108,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14917,7 +15160,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14969,7 +15212,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15021,7 +15264,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15073,7 +15316,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15125,7 +15368,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15177,7 +15420,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15229,7 +15472,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15281,7 +15524,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15333,7 +15576,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15385,7 +15628,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15437,7 +15680,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15489,7 +15732,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15541,7 +15784,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15593,7 +15836,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15645,7 +15888,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15697,7 +15940,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15749,7 +15992,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -15801,7 +16044,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -15853,7 +16096,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -15905,7 +16148,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -15957,7 +16200,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16009,7 +16252,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16061,7 +16304,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16113,7 +16356,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16165,7 +16408,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16217,7 +16460,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16269,7 +16512,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16321,7 +16564,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16373,7 +16616,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16425,7 +16668,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16477,7 +16720,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16529,7 +16772,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16581,7 +16824,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16633,7 +16876,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16685,7 +16928,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16737,7 +16980,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -16789,7 +17032,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -16841,7 +17084,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -16893,7 +17136,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -16945,7 +17188,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -16997,7 +17240,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17049,7 +17292,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17101,7 +17344,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17153,7 +17396,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17205,7 +17448,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17257,7 +17500,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17309,7 +17552,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17361,7 +17604,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17413,7 +17656,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17465,7 +17708,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17517,7 +17760,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17569,7 +17812,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17621,7 +17864,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17673,7 +17916,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17725,7 +17968,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -17777,7 +18020,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -17829,7 +18072,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -17881,7 +18124,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -17933,7 +18176,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -17985,7 +18228,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18037,7 +18280,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18089,7 +18332,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18141,7 +18384,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18193,7 +18436,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18245,7 +18488,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18297,7 +18540,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18349,7 +18592,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18401,7 +18644,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18453,7 +18696,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18505,7 +18748,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18557,7 +18800,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18609,7 +18852,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18661,7 +18904,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18713,7 +18956,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -18765,7 +19008,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -18817,7 +19060,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -18869,7 +19112,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -18921,7 +19164,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -18973,7 +19216,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19025,7 +19268,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19077,7 +19320,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19129,7 +19372,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19181,7 +19424,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19233,7 +19476,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19285,7 +19528,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19337,7 +19580,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19389,7 +19632,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19441,7 +19684,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19493,7 +19736,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19545,7 +19788,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19597,7 +19840,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19649,7 +19892,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19701,7 +19944,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19753,7 +19996,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -19805,7 +20048,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -19857,7 +20100,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -19909,7 +20152,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -19961,7 +20204,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20013,7 +20256,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20065,7 +20308,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20117,7 +20360,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20169,7 +20412,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20221,7 +20464,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20273,7 +20516,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20325,7 +20568,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20377,7 +20620,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20429,7 +20672,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20481,7 +20724,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20533,7 +20776,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20585,7 +20828,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20637,7 +20880,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20689,7 +20932,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20741,7 +20984,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -20793,7 +21036,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -20845,7 +21088,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -20897,7 +21140,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -20949,7 +21192,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21001,7 +21244,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21053,7 +21296,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21105,7 +21348,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21157,7 +21400,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21209,7 +21452,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21261,7 +21504,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21313,7 +21556,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21365,7 +21608,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21417,7 +21660,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21469,7 +21712,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21521,7 +21764,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21573,7 +21816,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21625,7 +21868,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21677,7 +21920,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21729,7 +21972,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -21781,7 +22024,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -21833,7 +22076,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -21885,7 +22128,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -21937,7 +22180,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -21989,7 +22232,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22041,7 +22284,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22093,7 +22336,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22145,7 +22388,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22197,7 +22440,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22249,7 +22492,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22301,7 +22544,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22353,7 +22596,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22405,7 +22648,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22457,7 +22700,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22509,7 +22752,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22561,7 +22804,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22613,7 +22856,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22665,7 +22908,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22717,7 +22960,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -22769,7 +23012,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -22821,7 +23064,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -22873,7 +23116,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -22925,7 +23168,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -22977,7 +23220,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23029,7 +23272,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23081,7 +23324,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23133,7 +23376,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23185,7 +23428,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23237,7 +23480,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23289,7 +23532,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23341,7 +23584,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23393,7 +23636,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23445,7 +23688,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23497,7 +23740,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23549,7 +23792,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23601,7 +23844,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23653,7 +23896,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23705,7 +23948,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -23757,7 +24000,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -23809,7 +24052,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -23861,7 +24104,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -23913,7 +24156,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -23965,7 +24208,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24017,7 +24260,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24069,7 +24312,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24121,7 +24364,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24173,7 +24416,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24225,7 +24468,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24277,7 +24520,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24329,7 +24572,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24381,7 +24624,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24433,7 +24676,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24485,7 +24728,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24537,7 +24780,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24589,7 +24832,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24641,7 +24884,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24693,7 +24936,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24745,7 +24988,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -24797,7 +25040,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -24849,7 +25092,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -24901,7 +25144,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -24953,7 +25196,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25005,7 +25248,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25057,7 +25300,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25109,7 +25352,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25161,7 +25404,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25213,7 +25456,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25265,7 +25508,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25317,7 +25560,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25369,7 +25612,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25421,7 +25664,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25473,7 +25716,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25525,7 +25768,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25577,7 +25820,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25629,7 +25872,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25681,7 +25924,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25733,7 +25976,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -25785,7 +26028,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -25837,7 +26080,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -25889,7 +26132,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -25941,7 +26184,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -25993,7 +26236,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26045,7 +26288,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26097,7 +26340,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26149,7 +26392,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26201,7 +26444,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26253,7 +26496,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26305,7 +26548,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26357,7 +26600,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26409,7 +26652,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26461,7 +26704,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26513,7 +26756,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26565,7 +26808,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26617,7 +26860,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26669,7 +26912,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26721,7 +26964,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -26773,7 +27016,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -26825,7 +27068,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -26877,7 +27120,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -26929,7 +27172,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -26981,7 +27224,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27033,7 +27276,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27085,7 +27328,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27137,7 +27380,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27189,7 +27432,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27241,7 +27484,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27293,7 +27536,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27345,7 +27588,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27397,7 +27640,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27449,7 +27692,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27501,7 +27744,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27553,7 +27796,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27605,7 +27848,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27657,7 +27900,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27709,7 +27952,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -27761,7 +28004,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -27813,7 +28056,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -27865,7 +28108,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -27917,7 +28160,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -27969,7 +28212,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28021,7 +28264,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28073,7 +28316,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28125,7 +28368,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28177,7 +28420,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28229,7 +28472,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28281,7 +28524,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28333,7 +28576,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28385,7 +28628,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28437,7 +28680,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28489,7 +28732,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28541,7 +28784,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28593,7 +28836,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28645,7 +28888,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28697,7 +28940,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28749,7 +28992,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -28801,7 +29044,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -28853,7 +29096,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -28905,7 +29148,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -28957,7 +29200,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29009,7 +29252,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29061,7 +29304,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29113,7 +29356,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29165,7 +29408,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29217,7 +29460,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29269,7 +29512,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29321,7 +29564,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29373,7 +29616,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29425,7 +29668,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29477,7 +29720,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29529,7 +29772,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29581,7 +29824,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29633,7 +29876,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29685,7 +29928,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29737,7 +29980,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -29789,7 +30032,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -29841,7 +30084,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -29893,7 +30136,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -29945,7 +30188,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -29997,7 +30240,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30049,7 +30292,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30101,7 +30344,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30153,7 +30396,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30205,7 +30448,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30257,7 +30500,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30309,7 +30552,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30361,7 +30604,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30413,7 +30656,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30465,7 +30708,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30517,7 +30760,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30569,7 +30812,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30621,7 +30864,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30673,7 +30916,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30725,7 +30968,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -30777,7 +31020,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -30829,7 +31072,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -30881,7 +31124,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -30933,7 +31176,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -30985,7 +31228,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31037,7 +31280,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31089,7 +31332,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31141,7 +31384,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31193,7 +31436,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31245,7 +31488,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31297,7 +31540,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31349,7 +31592,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31401,7 +31644,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31453,7 +31696,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31505,7 +31748,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31557,7 +31800,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31609,7 +31852,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31661,7 +31904,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31713,7 +31956,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -31765,7 +32008,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -31817,7 +32060,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -31869,7 +32112,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -31921,7 +32164,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -31973,7 +32216,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32025,7 +32268,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32077,7 +32320,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32129,7 +32372,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32181,7 +32424,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32233,7 +32476,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32285,7 +32528,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32337,7 +32580,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32389,7 +32632,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32441,7 +32684,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32493,7 +32736,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32545,7 +32788,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32597,7 +32840,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32649,7 +32892,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32701,7 +32944,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -32753,7 +32996,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -32805,7 +33048,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -32857,7 +33100,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -32909,7 +33152,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -32961,7 +33204,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33013,7 +33256,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33065,7 +33308,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33117,7 +33360,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33169,7 +33412,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33221,7 +33464,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33273,7 +33516,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33325,7 +33568,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33377,7 +33620,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33429,7 +33672,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33481,7 +33724,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33533,7 +33776,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33585,7 +33828,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33637,7 +33880,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33689,7 +33932,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33741,7 +33984,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -33793,7 +34036,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -33845,7 +34088,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -33897,7 +34140,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -33949,7 +34192,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34001,7 +34244,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34053,7 +34296,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34105,7 +34348,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34157,7 +34400,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34209,7 +34452,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34261,7 +34504,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34313,7 +34556,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34365,7 +34608,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34417,7 +34660,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34469,7 +34712,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34521,7 +34764,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34573,7 +34816,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34625,7 +34868,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34677,7 +34920,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34729,7 +34972,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -34781,7 +35024,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -34833,7 +35076,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -34885,7 +35128,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -34937,7 +35180,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -34989,7 +35232,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35041,7 +35284,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35093,7 +35336,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35145,7 +35388,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35197,7 +35440,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35249,7 +35492,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35301,7 +35544,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35353,7 +35596,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35405,7 +35648,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35457,7 +35700,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35509,7 +35752,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35561,7 +35804,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35613,7 +35856,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35665,7 +35908,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35717,7 +35960,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -35769,7 +36012,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -35821,7 +36064,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -35873,7 +36116,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -35925,7 +36168,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -35977,7 +36220,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36029,7 +36272,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36081,7 +36324,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36133,7 +36376,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36185,7 +36428,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36237,7 +36480,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36289,7 +36532,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36341,7 +36584,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36393,7 +36636,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36445,7 +36688,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36497,7 +36740,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36549,7 +36792,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36601,7 +36844,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36653,7 +36896,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36705,7 +36948,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -36757,7 +37000,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -36809,7 +37052,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -36861,7 +37104,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -36913,7 +37156,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -36965,7 +37208,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37017,7 +37260,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37069,7 +37312,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37121,7 +37364,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37173,7 +37416,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37225,7 +37468,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37277,7 +37520,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37329,7 +37572,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37381,7 +37624,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37433,7 +37676,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37485,7 +37728,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37537,7 +37780,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37589,7 +37832,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37641,7 +37884,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37693,7 +37936,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37745,7 +37988,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -37797,7 +38040,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -37849,7 +38092,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -37901,7 +38144,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -37953,7 +38196,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38005,7 +38248,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38057,7 +38300,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38109,7 +38352,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38161,7 +38404,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38213,7 +38456,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38265,7 +38508,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38317,7 +38560,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38369,7 +38612,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38421,7 +38664,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38473,7 +38716,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38525,7 +38768,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38577,7 +38820,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38629,7 +38872,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38681,7 +38924,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38733,7 +38976,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -38785,7 +39028,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -38837,7 +39080,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -38889,7 +39132,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -38941,7 +39184,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -38993,7 +39236,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39045,7 +39288,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39097,7 +39340,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39149,7 +39392,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39201,7 +39444,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39253,7 +39496,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39305,7 +39548,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39357,7 +39600,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39409,7 +39652,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39461,7 +39704,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39513,7 +39756,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39565,7 +39808,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39617,7 +39860,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39669,7 +39912,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39721,7 +39964,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -39773,7 +40016,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -39825,7 +40068,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -39877,7 +40120,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -39929,7 +40172,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -39981,7 +40224,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40033,7 +40276,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40085,7 +40328,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40137,7 +40380,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40189,7 +40432,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40241,7 +40484,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40293,7 +40536,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40345,7 +40588,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40397,7 +40640,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40449,7 +40692,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40501,7 +40744,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40553,7 +40796,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40605,7 +40848,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40657,7 +40900,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40709,7 +40952,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -40761,7 +41004,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -40813,7 +41056,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -40865,7 +41108,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -40917,7 +41160,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -40969,7 +41212,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41021,7 +41264,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41073,7 +41316,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41125,7 +41368,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41177,7 +41420,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41229,7 +41472,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41281,7 +41524,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41333,7 +41576,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41385,7 +41628,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41437,7 +41680,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41489,7 +41732,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41541,7 +41784,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41593,7 +41836,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41645,7 +41888,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41697,7 +41940,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41749,7 +41992,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -41801,7 +42044,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -41853,7 +42096,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -41905,7 +42148,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -41957,7 +42200,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42009,7 +42252,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42061,7 +42304,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42113,7 +42356,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42165,7 +42408,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42217,7 +42460,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42269,7 +42512,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42321,7 +42564,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42373,7 +42616,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42425,7 +42668,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42477,7 +42720,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42529,7 +42772,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42581,7 +42824,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42633,7 +42876,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42685,7 +42928,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42737,7 +42980,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -42789,7 +43032,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -42841,7 +43084,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -42893,7 +43136,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -42945,7 +43188,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -42997,7 +43240,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43049,7 +43292,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43101,7 +43344,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43153,7 +43396,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43205,7 +43448,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43257,7 +43500,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43309,7 +43552,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43361,7 +43604,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43413,7 +43656,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43465,7 +43708,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43517,7 +43760,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43569,7 +43812,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43621,7 +43864,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43673,7 +43916,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43725,7 +43968,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -43777,7 +44020,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -43829,7 +44072,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -43881,7 +44124,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -43933,7 +44176,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -43985,7 +44228,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44037,7 +44280,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44089,7 +44332,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44141,7 +44384,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44193,7 +44436,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44245,7 +44488,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44297,7 +44540,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44349,7 +44592,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44401,7 +44644,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44453,7 +44696,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44505,7 +44748,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44557,7 +44800,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44609,7 +44852,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44661,7 +44904,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44713,7 +44956,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -44765,7 +45008,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -44817,7 +45060,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -44869,7 +45112,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -44921,7 +45164,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -44973,7 +45216,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45025,7 +45268,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45077,7 +45320,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45129,7 +45372,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45181,7 +45424,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45233,7 +45476,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45285,7 +45528,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45337,7 +45580,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45389,7 +45632,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45441,7 +45684,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45493,7 +45736,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45545,7 +45788,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45597,7 +45840,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45649,7 +45892,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45701,7 +45944,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -45753,7 +45996,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -45805,7 +46048,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -45857,7 +46100,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -45909,7 +46152,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -45961,7 +46204,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46013,7 +46256,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46065,7 +46308,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46117,7 +46360,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46169,7 +46412,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46221,7 +46464,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46273,7 +46516,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46325,7 +46568,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46377,7 +46620,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46429,7 +46672,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46481,7 +46724,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46533,7 +46776,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46585,7 +46828,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46637,7 +46880,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46689,7 +46932,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46741,7 +46984,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -46793,7 +47036,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -46845,7 +47088,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -46897,7 +47140,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -46949,7 +47192,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47001,7 +47244,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47053,7 +47296,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47105,7 +47348,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47157,7 +47400,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47209,7 +47452,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47261,7 +47504,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47313,7 +47556,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47365,7 +47608,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47417,7 +47660,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47469,7 +47712,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47521,7 +47764,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47573,7 +47816,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47625,7 +47868,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47677,7 +47920,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47729,7 +47972,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -47781,7 +48024,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -47833,7 +48076,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -47885,7 +48128,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -47937,7 +48180,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -47989,7 +48232,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48041,7 +48284,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48093,7 +48336,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48145,7 +48388,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48197,7 +48440,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48249,7 +48492,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48301,7 +48544,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48353,7 +48596,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48405,7 +48648,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48457,7 +48700,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48509,7 +48752,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48561,7 +48804,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48613,7 +48856,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48665,7 +48908,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48717,7 +48960,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -48769,7 +49012,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -48821,7 +49064,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -48873,7 +49116,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -48925,7 +49168,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -48977,7 +49220,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49029,7 +49272,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49081,7 +49324,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49133,7 +49376,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49185,7 +49428,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49237,7 +49480,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49289,7 +49532,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49341,7 +49584,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49393,7 +49636,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49445,7 +49688,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49497,7 +49740,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49549,7 +49792,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49601,7 +49844,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49653,7 +49896,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49705,7 +49948,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -49757,7 +50000,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -49809,7 +50052,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -49861,7 +50104,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -49913,7 +50156,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -49965,7 +50208,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50017,7 +50260,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50069,7 +50312,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50121,7 +50364,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50173,7 +50416,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50225,7 +50468,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50277,7 +50520,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50329,7 +50572,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50381,7 +50624,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50433,7 +50676,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50485,7 +50728,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50537,7 +50780,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50589,7 +50832,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50641,7 +50884,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50693,7 +50936,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50745,7 +50988,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -50797,7 +51040,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -50849,7 +51092,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -50901,7 +51144,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -50953,7 +51196,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51005,7 +51248,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51057,7 +51300,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51109,7 +51352,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51161,7 +51404,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51213,7 +51456,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51265,7 +51508,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51317,7 +51560,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51369,7 +51612,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51421,7 +51664,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51473,7 +51716,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51525,7 +51768,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51577,7 +51820,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51629,7 +51872,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51681,7 +51924,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51733,7 +51976,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -51785,7 +52028,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -51837,7 +52080,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -51889,7 +52132,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -51941,7 +52184,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -51993,7 +52236,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52045,7 +52288,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52097,7 +52340,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52149,7 +52392,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52201,7 +52444,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52253,7 +52496,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52305,7 +52548,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -52358,12 +52601,7 @@
       <c r="AX996" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/10. creationdate/Auto_CreationDate_C17.xlsx
+++ b/Data Files/Input Validation/10. creationdate/Auto_CreationDate_C17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\10. creationdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C59AD74-48B8-4A63-8181-0D6F5761DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A20DB4-695B-4639-88CF-1F60CCDB8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2730" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>contractNo</t>
   </si>
@@ -605,60 +605,59 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="16380" width="2.6640625" style="1"/>
-    <col min="16383" max="16384" width="2.6640625" style="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.7109375" style="1"/>
+    <col min="16383" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +799,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -824,7 +823,9 @@
         <v>51</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>52</v>
@@ -917,7 +918,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -971,7 +972,7 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1023,7 +1024,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1075,7 +1076,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1127,7 +1128,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1177,7 +1178,7 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1228,7 +1229,7 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1279,7 +1280,7 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1330,7 +1331,7 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1381,7 +1382,7 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1433,7 +1434,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1484,7 +1485,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1536,7 +1537,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1588,7 +1589,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1640,7 +1641,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1692,7 +1693,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1744,7 +1745,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1796,7 +1797,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1848,7 +1849,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1900,7 +1901,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1952,7 +1953,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2004,7 +2005,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2056,7 +2057,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2108,7 +2109,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2160,7 +2161,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2212,7 +2213,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2264,7 +2265,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2316,7 +2317,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2368,7 +2369,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2420,7 +2421,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2472,7 +2473,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2524,7 +2525,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2576,7 +2577,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2628,7 +2629,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2680,7 +2681,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2732,7 +2733,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2784,7 +2785,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2836,7 +2837,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2888,7 +2889,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2940,7 +2941,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2992,7 +2993,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3044,7 +3045,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3096,7 +3097,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3148,7 +3149,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3200,7 +3201,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3252,7 +3253,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3304,7 +3305,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3356,7 +3357,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3408,7 +3409,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3460,7 +3461,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3512,7 +3513,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3564,7 +3565,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3616,7 +3617,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3668,7 +3669,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3720,7 +3721,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3772,7 +3773,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3824,7 +3825,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3876,7 +3877,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3928,7 +3929,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3980,7 +3981,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4032,7 +4033,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4084,7 +4085,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4136,7 +4137,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4188,7 +4189,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4240,7 +4241,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4292,7 +4293,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4344,7 +4345,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4396,7 +4397,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4448,7 +4449,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4500,7 +4501,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4552,7 +4553,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4604,7 +4605,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4656,7 +4657,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4708,7 +4709,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4760,7 +4761,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4812,7 +4813,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4864,7 +4865,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4916,7 +4917,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4968,7 +4969,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5020,7 +5021,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5072,7 +5073,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5124,7 +5125,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5176,7 +5177,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5228,7 +5229,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5280,7 +5281,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5332,7 +5333,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5384,7 +5385,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5436,7 +5437,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5488,7 +5489,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5540,7 +5541,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5592,7 +5593,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5644,7 +5645,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5696,7 +5697,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5748,7 +5749,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5800,7 +5801,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5852,7 +5853,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5904,7 +5905,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5956,7 +5957,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6008,7 +6009,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6060,7 +6061,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6112,7 +6113,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6164,7 +6165,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6216,7 +6217,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6268,7 +6269,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6320,7 +6321,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6372,7 +6373,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6424,7 +6425,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6476,7 +6477,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6528,7 +6529,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6580,7 +6581,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6632,7 +6633,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6684,7 +6685,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6736,7 +6737,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6788,7 +6789,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6840,7 +6841,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6892,7 +6893,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6944,7 +6945,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6996,7 +6997,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7048,7 +7049,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7100,7 +7101,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7152,7 +7153,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7204,7 +7205,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7256,7 +7257,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7308,7 +7309,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7360,7 +7361,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7412,7 +7413,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7464,7 +7465,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7516,7 +7517,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7568,7 +7569,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7620,7 +7621,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7672,7 +7673,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7724,7 +7725,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7776,7 +7777,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7828,7 +7829,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7880,7 +7881,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7932,7 +7933,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7984,7 +7985,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8036,7 +8037,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8088,7 +8089,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8140,7 +8141,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8192,7 +8193,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8244,7 +8245,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8296,7 +8297,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8348,7 +8349,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8400,7 +8401,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8452,7 +8453,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8504,7 +8505,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8556,7 +8557,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8608,7 +8609,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8660,7 +8661,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8712,7 +8713,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8764,7 +8765,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8816,7 +8817,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8868,7 +8869,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8920,7 +8921,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8972,7 +8973,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9024,7 +9025,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9076,7 +9077,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9128,7 +9129,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9180,7 +9181,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9232,7 +9233,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9284,7 +9285,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9336,7 +9337,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9388,7 +9389,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9440,7 +9441,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9492,7 +9493,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9544,7 +9545,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9596,7 +9597,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9648,7 +9649,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9700,7 +9701,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9752,7 +9753,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9804,7 +9805,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9856,7 +9857,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9908,7 +9909,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9960,7 +9961,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10012,7 +10013,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10064,7 +10065,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10116,7 +10117,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10168,7 +10169,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10220,7 +10221,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10272,7 +10273,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10324,7 +10325,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10376,7 +10377,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10428,7 +10429,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10480,7 +10481,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10532,7 +10533,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10584,7 +10585,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10636,7 +10637,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10688,7 +10689,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10740,7 +10741,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10792,7 +10793,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10844,7 +10845,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10896,7 +10897,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10948,7 +10949,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11000,7 +11001,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11052,7 +11053,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11104,7 +11105,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11156,7 +11157,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11208,7 +11209,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11260,7 +11261,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11312,7 +11313,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11364,7 +11365,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11416,7 +11417,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11468,7 +11469,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11520,7 +11521,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11572,7 +11573,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11624,7 +11625,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11676,7 +11677,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11728,7 +11729,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11780,7 +11781,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11832,7 +11833,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11884,7 +11885,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11936,7 +11937,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11988,7 +11989,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12040,7 +12041,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12092,7 +12093,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12144,7 +12145,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12196,7 +12197,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12248,7 +12249,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12300,7 +12301,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12352,7 +12353,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12404,7 +12405,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12456,7 +12457,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12508,7 +12509,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12560,7 +12561,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12612,7 +12613,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12664,7 +12665,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12716,7 +12717,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12768,7 +12769,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12820,7 +12821,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12872,7 +12873,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12924,7 +12925,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12976,7 +12977,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13028,7 +13029,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13080,7 +13081,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13132,7 +13133,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13184,7 +13185,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13236,7 +13237,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13288,7 +13289,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13340,7 +13341,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13392,7 +13393,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13444,7 +13445,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13496,7 +13497,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13548,7 +13549,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13600,7 +13601,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13652,7 +13653,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13704,7 +13705,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13756,7 +13757,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13808,7 +13809,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13860,7 +13861,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13912,7 +13913,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13964,7 +13965,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -14016,7 +14017,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14068,7 +14069,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14120,7 +14121,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14172,7 +14173,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14224,7 +14225,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14276,7 +14277,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14328,7 +14329,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14380,7 +14381,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14432,7 +14433,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14484,7 +14485,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14536,7 +14537,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14588,7 +14589,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14640,7 +14641,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14692,7 +14693,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14744,7 +14745,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14796,7 +14797,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14848,7 +14849,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14900,7 +14901,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14952,7 +14953,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -15004,7 +15005,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -15056,7 +15057,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -15108,7 +15109,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -15160,7 +15161,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -15212,7 +15213,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15264,7 +15265,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15316,7 +15317,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15368,7 +15369,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15420,7 +15421,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15472,7 +15473,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15524,7 +15525,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15576,7 +15577,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15628,7 +15629,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15680,7 +15681,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15732,7 +15733,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15784,7 +15785,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15836,7 +15837,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15888,7 +15889,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15940,7 +15941,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15992,7 +15993,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -16044,7 +16045,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -16096,7 +16097,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -16148,7 +16149,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -16200,7 +16201,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16252,7 +16253,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16304,7 +16305,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16356,7 +16357,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16408,7 +16409,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16460,7 +16461,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16512,7 +16513,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16564,7 +16565,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16616,7 +16617,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16668,7 +16669,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16720,7 +16721,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16772,7 +16773,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16824,7 +16825,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16876,7 +16877,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16928,7 +16929,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16980,7 +16981,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -17032,7 +17033,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -17084,7 +17085,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -17136,7 +17137,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -17188,7 +17189,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -17240,7 +17241,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17292,7 +17293,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17344,7 +17345,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17396,7 +17397,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17448,7 +17449,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17500,7 +17501,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17552,7 +17553,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17604,7 +17605,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17656,7 +17657,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17708,7 +17709,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17760,7 +17761,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17812,7 +17813,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17864,7 +17865,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17916,7 +17917,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17968,7 +17969,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -18020,7 +18021,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -18072,7 +18073,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -18124,7 +18125,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -18176,7 +18177,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -18228,7 +18229,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18280,7 +18281,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18332,7 +18333,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18384,7 +18385,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18436,7 +18437,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18488,7 +18489,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18540,7 +18541,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18592,7 +18593,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18644,7 +18645,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18696,7 +18697,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18748,7 +18749,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18800,7 +18801,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18852,7 +18853,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18904,7 +18905,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18956,7 +18957,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -19008,7 +19009,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -19060,7 +19061,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -19112,7 +19113,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -19164,7 +19165,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -19216,7 +19217,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19268,7 +19269,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19320,7 +19321,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19372,7 +19373,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19424,7 +19425,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19476,7 +19477,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19528,7 +19529,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19580,7 +19581,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19632,7 +19633,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19684,7 +19685,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19736,7 +19737,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19788,7 +19789,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19840,7 +19841,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19892,7 +19893,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19944,7 +19945,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19996,7 +19997,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -20048,7 +20049,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -20100,7 +20101,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -20152,7 +20153,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -20204,7 +20205,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20256,7 +20257,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20308,7 +20309,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20360,7 +20361,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20412,7 +20413,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20464,7 +20465,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20516,7 +20517,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20568,7 +20569,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20620,7 +20621,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20672,7 +20673,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20724,7 +20725,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20776,7 +20777,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20828,7 +20829,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20880,7 +20881,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20932,7 +20933,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20984,7 +20985,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -21036,7 +21037,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -21088,7 +21089,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -21140,7 +21141,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -21192,7 +21193,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21244,7 +21245,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21296,7 +21297,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21348,7 +21349,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21400,7 +21401,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21452,7 +21453,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21504,7 +21505,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21556,7 +21557,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21608,7 +21609,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21660,7 +21661,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21712,7 +21713,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21764,7 +21765,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21816,7 +21817,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21868,7 +21869,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21920,7 +21921,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21972,7 +21973,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -22024,7 +22025,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -22076,7 +22077,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -22128,7 +22129,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -22180,7 +22181,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -22232,7 +22233,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22284,7 +22285,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22336,7 +22337,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22388,7 +22389,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22440,7 +22441,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22492,7 +22493,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22544,7 +22545,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22596,7 +22597,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22648,7 +22649,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22700,7 +22701,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22752,7 +22753,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22804,7 +22805,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22856,7 +22857,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22908,7 +22909,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22960,7 +22961,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -23012,7 +23013,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -23064,7 +23065,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -23116,7 +23117,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -23168,7 +23169,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -23220,7 +23221,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23272,7 +23273,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23324,7 +23325,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23376,7 +23377,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23428,7 +23429,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23480,7 +23481,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23532,7 +23533,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23584,7 +23585,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23636,7 +23637,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23688,7 +23689,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23740,7 +23741,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23792,7 +23793,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23844,7 +23845,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23896,7 +23897,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23948,7 +23949,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -24000,7 +24001,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -24052,7 +24053,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -24104,7 +24105,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -24156,7 +24157,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -24208,7 +24209,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24260,7 +24261,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24312,7 +24313,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24364,7 +24365,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24416,7 +24417,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24468,7 +24469,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24520,7 +24521,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24572,7 +24573,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24624,7 +24625,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24676,7 +24677,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24728,7 +24729,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24780,7 +24781,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24832,7 +24833,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24884,7 +24885,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24936,7 +24937,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24988,7 +24989,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -25040,7 +25041,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -25092,7 +25093,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -25144,7 +25145,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -25196,7 +25197,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25248,7 +25249,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25300,7 +25301,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25352,7 +25353,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25404,7 +25405,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25456,7 +25457,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25508,7 +25509,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25560,7 +25561,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25612,7 +25613,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25664,7 +25665,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25716,7 +25717,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25768,7 +25769,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25820,7 +25821,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25872,7 +25873,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25924,7 +25925,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25976,7 +25977,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -26028,7 +26029,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -26080,7 +26081,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -26132,7 +26133,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -26184,7 +26185,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -26236,7 +26237,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26288,7 +26289,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26340,7 +26341,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26392,7 +26393,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26444,7 +26445,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26496,7 +26497,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26548,7 +26549,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26600,7 +26601,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26652,7 +26653,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26704,7 +26705,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26756,7 +26757,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26808,7 +26809,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26860,7 +26861,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26912,7 +26913,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26964,7 +26965,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -27016,7 +27017,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -27068,7 +27069,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -27120,7 +27121,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -27172,7 +27173,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -27224,7 +27225,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27276,7 +27277,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27328,7 +27329,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27380,7 +27381,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27432,7 +27433,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27484,7 +27485,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27536,7 +27537,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27588,7 +27589,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27640,7 +27641,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27692,7 +27693,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27744,7 +27745,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27796,7 +27797,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27848,7 +27849,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27900,7 +27901,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27952,7 +27953,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -28004,7 +28005,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -28056,7 +28057,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -28108,7 +28109,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -28160,7 +28161,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -28212,7 +28213,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28264,7 +28265,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28316,7 +28317,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28368,7 +28369,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28420,7 +28421,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28472,7 +28473,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28524,7 +28525,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28576,7 +28577,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28628,7 +28629,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28680,7 +28681,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28732,7 +28733,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28784,7 +28785,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28836,7 +28837,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28888,7 +28889,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28940,7 +28941,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28992,7 +28993,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -29044,7 +29045,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -29096,7 +29097,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -29148,7 +29149,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -29200,7 +29201,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29252,7 +29253,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29304,7 +29305,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29356,7 +29357,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29408,7 +29409,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29460,7 +29461,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29512,7 +29513,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29564,7 +29565,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29616,7 +29617,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29668,7 +29669,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29720,7 +29721,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29772,7 +29773,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29824,7 +29825,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29876,7 +29877,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29928,7 +29929,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29980,7 +29981,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -30032,7 +30033,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -30084,7 +30085,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -30136,7 +30137,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -30188,7 +30189,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -30240,7 +30241,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30292,7 +30293,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30344,7 +30345,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30396,7 +30397,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30448,7 +30449,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30500,7 +30501,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30552,7 +30553,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30604,7 +30605,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30656,7 +30657,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30708,7 +30709,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30760,7 +30761,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30812,7 +30813,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30864,7 +30865,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30916,7 +30917,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30968,7 +30969,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -31020,7 +31021,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -31072,7 +31073,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -31124,7 +31125,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -31176,7 +31177,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -31228,7 +31229,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31280,7 +31281,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31332,7 +31333,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31384,7 +31385,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31436,7 +31437,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31488,7 +31489,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31540,7 +31541,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31592,7 +31593,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31644,7 +31645,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31696,7 +31697,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31748,7 +31749,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31800,7 +31801,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31852,7 +31853,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31904,7 +31905,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31956,7 +31957,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -32008,7 +32009,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -32060,7 +32061,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -32112,7 +32113,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -32164,7 +32165,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -32216,7 +32217,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32268,7 +32269,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32320,7 +32321,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32372,7 +32373,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32424,7 +32425,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32476,7 +32477,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32528,7 +32529,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32580,7 +32581,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32632,7 +32633,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32684,7 +32685,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32736,7 +32737,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32788,7 +32789,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32840,7 +32841,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32892,7 +32893,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32944,7 +32945,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -32996,7 +32997,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -33048,7 +33049,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -33100,7 +33101,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -33152,7 +33153,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -33204,7 +33205,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33256,7 +33257,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33308,7 +33309,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33360,7 +33361,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33412,7 +33413,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33464,7 +33465,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33516,7 +33517,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33568,7 +33569,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33620,7 +33621,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33672,7 +33673,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33724,7 +33725,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33776,7 +33777,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33828,7 +33829,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33880,7 +33881,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33932,7 +33933,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33984,7 +33985,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -34036,7 +34037,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -34088,7 +34089,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -34140,7 +34141,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -34192,7 +34193,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34244,7 +34245,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34296,7 +34297,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34348,7 +34349,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34400,7 +34401,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34452,7 +34453,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34504,7 +34505,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34556,7 +34557,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34608,7 +34609,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34660,7 +34661,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34712,7 +34713,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34764,7 +34765,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34816,7 +34817,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34868,7 +34869,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34920,7 +34921,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34972,7 +34973,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -35024,7 +35025,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -35076,7 +35077,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -35128,7 +35129,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -35180,7 +35181,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -35232,7 +35233,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35284,7 +35285,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35336,7 +35337,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35388,7 +35389,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35440,7 +35441,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35492,7 +35493,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35544,7 +35545,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35596,7 +35597,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35648,7 +35649,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35700,7 +35701,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35752,7 +35753,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35804,7 +35805,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35856,7 +35857,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35908,7 +35909,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35960,7 +35961,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -36012,7 +36013,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -36064,7 +36065,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -36116,7 +36117,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -36168,7 +36169,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -36220,7 +36221,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36272,7 +36273,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36324,7 +36325,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36376,7 +36377,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36428,7 +36429,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36480,7 +36481,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36532,7 +36533,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36584,7 +36585,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36636,7 +36637,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36688,7 +36689,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36740,7 +36741,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36792,7 +36793,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36844,7 +36845,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36896,7 +36897,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36948,7 +36949,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -37000,7 +37001,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -37052,7 +37053,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -37104,7 +37105,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -37156,7 +37157,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -37208,7 +37209,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37260,7 +37261,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37312,7 +37313,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37364,7 +37365,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37416,7 +37417,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37468,7 +37469,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37520,7 +37521,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37572,7 +37573,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37624,7 +37625,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37676,7 +37677,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37728,7 +37729,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37780,7 +37781,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37832,7 +37833,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37884,7 +37885,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37936,7 +37937,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37988,7 +37989,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -38040,7 +38041,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -38092,7 +38093,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -38144,7 +38145,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -38196,7 +38197,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38248,7 +38249,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38300,7 +38301,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38352,7 +38353,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38404,7 +38405,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38456,7 +38457,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38508,7 +38509,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38560,7 +38561,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38612,7 +38613,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38664,7 +38665,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38716,7 +38717,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38768,7 +38769,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38820,7 +38821,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38872,7 +38873,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38924,7 +38925,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38976,7 +38977,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -39028,7 +39029,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -39080,7 +39081,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -39132,7 +39133,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -39184,7 +39185,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -39236,7 +39237,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39288,7 +39289,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39340,7 +39341,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39392,7 +39393,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39444,7 +39445,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39496,7 +39497,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39548,7 +39549,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39600,7 +39601,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39652,7 +39653,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39704,7 +39705,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39756,7 +39757,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39808,7 +39809,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39860,7 +39861,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39912,7 +39913,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39964,7 +39965,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -40016,7 +40017,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -40068,7 +40069,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -40120,7 +40121,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -40172,7 +40173,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -40224,7 +40225,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40276,7 +40277,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40328,7 +40329,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40380,7 +40381,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40432,7 +40433,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40484,7 +40485,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40536,7 +40537,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40588,7 +40589,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40640,7 +40641,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40692,7 +40693,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40744,7 +40745,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40796,7 +40797,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40848,7 +40849,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40900,7 +40901,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40952,7 +40953,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -41004,7 +41005,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -41056,7 +41057,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -41108,7 +41109,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -41160,7 +41161,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -41212,7 +41213,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41264,7 +41265,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41316,7 +41317,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41368,7 +41369,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41420,7 +41421,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41472,7 +41473,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41524,7 +41525,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41576,7 +41577,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41628,7 +41629,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41680,7 +41681,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41732,7 +41733,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41784,7 +41785,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41836,7 +41837,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41888,7 +41889,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41940,7 +41941,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41992,7 +41993,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -42044,7 +42045,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -42096,7 +42097,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -42148,7 +42149,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -42200,7 +42201,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42252,7 +42253,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42304,7 +42305,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42356,7 +42357,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42408,7 +42409,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42460,7 +42461,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42512,7 +42513,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42564,7 +42565,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42616,7 +42617,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42668,7 +42669,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42720,7 +42721,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42772,7 +42773,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42824,7 +42825,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42876,7 +42877,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42928,7 +42929,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42980,7 +42981,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -43032,7 +43033,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -43084,7 +43085,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -43136,7 +43137,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -43188,7 +43189,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -43240,7 +43241,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43292,7 +43293,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43344,7 +43345,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43396,7 +43397,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43448,7 +43449,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43500,7 +43501,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43552,7 +43553,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43604,7 +43605,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43656,7 +43657,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43708,7 +43709,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43760,7 +43761,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43812,7 +43813,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43864,7 +43865,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43916,7 +43917,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43968,7 +43969,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -44020,7 +44021,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -44072,7 +44073,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -44124,7 +44125,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -44176,7 +44177,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -44228,7 +44229,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44280,7 +44281,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44332,7 +44333,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44384,7 +44385,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44436,7 +44437,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44488,7 +44489,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44540,7 +44541,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44592,7 +44593,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44644,7 +44645,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44696,7 +44697,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44748,7 +44749,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44800,7 +44801,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44852,7 +44853,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44904,7 +44905,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44956,7 +44957,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -45008,7 +45009,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -45060,7 +45061,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -45112,7 +45113,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -45164,7 +45165,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -45216,7 +45217,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45268,7 +45269,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45320,7 +45321,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45372,7 +45373,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45424,7 +45425,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45476,7 +45477,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45528,7 +45529,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45580,7 +45581,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45632,7 +45633,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45684,7 +45685,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45736,7 +45737,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45788,7 +45789,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45840,7 +45841,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45892,7 +45893,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45944,7 +45945,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -45996,7 +45997,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -46048,7 +46049,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -46100,7 +46101,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -46152,7 +46153,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -46204,7 +46205,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46256,7 +46257,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46308,7 +46309,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46360,7 +46361,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46412,7 +46413,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46464,7 +46465,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46516,7 +46517,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46568,7 +46569,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46620,7 +46621,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46672,7 +46673,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46724,7 +46725,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46776,7 +46777,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46828,7 +46829,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46880,7 +46881,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46932,7 +46933,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46984,7 +46985,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -47036,7 +47037,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -47088,7 +47089,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -47140,7 +47141,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -47192,7 +47193,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47244,7 +47245,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47296,7 +47297,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47348,7 +47349,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47400,7 +47401,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47452,7 +47453,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47504,7 +47505,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47556,7 +47557,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47608,7 +47609,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47660,7 +47661,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47712,7 +47713,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47764,7 +47765,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47816,7 +47817,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47868,7 +47869,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47920,7 +47921,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47972,7 +47973,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -48024,7 +48025,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -48076,7 +48077,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -48128,7 +48129,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -48180,7 +48181,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -48232,7 +48233,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48284,7 +48285,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48336,7 +48337,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48388,7 +48389,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48440,7 +48441,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48492,7 +48493,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48544,7 +48545,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48596,7 +48597,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48648,7 +48649,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48700,7 +48701,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48752,7 +48753,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48804,7 +48805,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48856,7 +48857,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48908,7 +48909,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48960,7 +48961,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -49012,7 +49013,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -49064,7 +49065,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -49116,7 +49117,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -49168,7 +49169,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -49220,7 +49221,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49272,7 +49273,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49324,7 +49325,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49376,7 +49377,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49428,7 +49429,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49480,7 +49481,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49532,7 +49533,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49584,7 +49585,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49636,7 +49637,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49688,7 +49689,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49740,7 +49741,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49792,7 +49793,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49844,7 +49845,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49896,7 +49897,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49948,7 +49949,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -50000,7 +50001,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -50052,7 +50053,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -50104,7 +50105,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -50156,7 +50157,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -50208,7 +50209,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50260,7 +50261,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50312,7 +50313,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50364,7 +50365,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50416,7 +50417,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50468,7 +50469,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50520,7 +50521,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50572,7 +50573,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50624,7 +50625,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50676,7 +50677,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50728,7 +50729,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50780,7 +50781,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50832,7 +50833,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50884,7 +50885,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50936,7 +50937,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50988,7 +50989,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -51040,7 +51041,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -51092,7 +51093,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -51144,7 +51145,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -51196,7 +51197,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51248,7 +51249,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51300,7 +51301,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51352,7 +51353,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51404,7 +51405,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51456,7 +51457,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51508,7 +51509,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51560,7 +51561,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51612,7 +51613,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51664,7 +51665,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51716,7 +51717,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51768,7 +51769,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51820,7 +51821,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51872,7 +51873,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51924,7 +51925,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51976,7 +51977,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -52028,7 +52029,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -52080,7 +52081,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -52132,7 +52133,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -52184,7 +52185,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -52236,7 +52237,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52288,7 +52289,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52340,7 +52341,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52392,7 +52393,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52444,7 +52445,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52496,7 +52497,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52548,7 +52549,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
